--- a/public/templates/itinerary_template.xlsx
+++ b/public/templates/itinerary_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogel\Herd\motor-pool\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2DD7A1-4C18-4A26-BC05-7475DEC4DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377378A3-3A21-4C7B-A7B8-93249BBB68E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{9215396B-139B-4A7F-BC50-F3B64F0A8DA3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9215396B-139B-4A7F-BC50-F3B64F0A8DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="IT INNOVA-EDGAR" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -166,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +235,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -441,6 +447,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,116 +558,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,9 +635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -775,7 +781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,109 +936,108 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.73046875" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" customWidth="1"/>
-    <col min="6" max="6" width="4.06640625" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="8.06640625" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" customWidth="1"/>
-    <col min="13" max="13" width="0.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="0.7265625" customWidth="1"/>
+    <col min="2" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="0.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1047,151 +1052,155 @@
       <c r="L6" s="16"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1199,326 +1208,334 @@
       <c r="K21" s="14"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="51"/>
+      <c r="J29" s="41"/>
       <c r="K29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="39" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="37" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="36"/>
+      <c r="L30" s="48"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="45"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="19"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="45"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="20"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="27"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="20"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="18"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="27"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="20"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="27"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="20"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="20"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="47"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="21"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="60" t="s">
+      <c r="I39" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="60"/>
+      <c r="J39" s="27"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="61" t="s">
+      <c r="G43" s="60" t="s">
         <v>2</v>
       </c>
+      <c r="H43" s="60"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1533,31 +1550,38 @@
       <c r="L47" s="3"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="C12:L12"/>
+  <mergeCells count="55">
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:L44"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:L26"/>
+    <mergeCell ref="H17:K18"/>
     <mergeCell ref="I31:J32"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
@@ -1571,29 +1595,23 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I45:L45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
